--- a/data/cleaned_data/2018_NC.xlsx
+++ b/data/cleaned_data/2018_NC.xlsx
@@ -22,7 +22,7 @@
     <t>County</t>
   </si>
   <si>
-    <t>fatalaties</t>
+    <t>fatalities</t>
   </si>
   <si>
     <t>injuries</t>

--- a/data/cleaned_data/2018_NC.xlsx
+++ b/data/cleaned_data/2018_NC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="373">
   <si>
     <t>Year</t>
   </si>
@@ -338,6 +338,678 @@
   </si>
   <si>
     <t>YANCEY</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1,852</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>1,178</t>
+  </si>
+  <si>
+    <t>2,915</t>
+  </si>
+  <si>
+    <t>1,022</t>
+  </si>
+  <si>
+    <t>2,386</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>1,963</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1,199</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>4,285</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>1,670</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>4,202</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>4,978</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>2,832</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>8,487</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>1,225</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>2,155</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>2,296</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>20,326</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>1,299</t>
+  </si>
+  <si>
+    <t>2,351</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>1,932</t>
+  </si>
+  <si>
+    <t>1,155</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>644</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>3,164</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>1,510</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>2,058</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>1,695</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2,270</t>
+  </si>
+  <si>
+    <t>872</t>
+  </si>
+  <si>
+    <t>12,642</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>1,495</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>1,132</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>4,325</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>1,059</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>2,852</t>
+  </si>
+  <si>
+    <t>8,198</t>
+  </si>
+  <si>
+    <t>2,284</t>
+  </si>
+  <si>
+    <t>6,209</t>
+  </si>
+  <si>
+    <t>1,841</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>1,489</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>5,009</t>
+  </si>
+  <si>
+    <t>1,506</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>2,929</t>
+  </si>
+  <si>
+    <t>1,650</t>
+  </si>
+  <si>
+    <t>2,328</t>
+  </si>
+  <si>
+    <t>8,632</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>3,717</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>1,742</t>
+  </si>
+  <si>
+    <t>10,942</t>
+  </si>
+  <si>
+    <t>1,229</t>
+  </si>
+  <si>
+    <t>12,068</t>
+  </si>
+  <si>
+    <t>6,855</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>14,764</t>
+  </si>
+  <si>
+    <t>1,388</t>
+  </si>
+  <si>
+    <t>2,431</t>
+  </si>
+  <si>
+    <t>1,304</t>
+  </si>
+  <si>
+    <t>2,670</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>4,566</t>
+  </si>
+  <si>
+    <t>5,079</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>1,566</t>
+  </si>
+  <si>
+    <t>1,461</t>
+  </si>
+  <si>
+    <t>1,679</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>1,287</t>
+  </si>
+  <si>
+    <t>39,798</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>2,209</t>
+  </si>
+  <si>
+    <t>2,504</t>
+  </si>
+  <si>
+    <t>6,027</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>4,467</t>
+  </si>
+  <si>
+    <t>3,083</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>1,511</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>5,907</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>3,417</t>
+  </si>
+  <si>
+    <t>1,163</t>
+  </si>
+  <si>
+    <t>3,702</t>
+  </si>
+  <si>
+    <t>2,148</t>
+  </si>
+  <si>
+    <t>3,955</t>
+  </si>
+  <si>
+    <t>1,346</t>
+  </si>
+  <si>
+    <t>1,617</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>1,497</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>1,633</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>5,732</t>
+  </si>
+  <si>
+    <t>1,361</t>
+  </si>
+  <si>
+    <t>31,876</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>1,462</t>
+  </si>
+  <si>
+    <t>2,986</t>
+  </si>
+  <si>
+    <t>1,394</t>
+  </si>
+  <si>
+    <t>2,311</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>236</t>
   </si>
   <si>
     <t>Burlington, NC</t>
@@ -857,23 +1529,23 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>1852</v>
-      </c>
-      <c r="E2">
-        <v>4325</v>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>238</v>
       </c>
       <c r="F2">
         <v>166514</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>332</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -883,23 +1555,23 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>266</v>
-      </c>
-      <c r="E3">
-        <v>585</v>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>239</v>
       </c>
       <c r="F3">
         <v>37331</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -909,14 +1581,14 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>74</v>
-      </c>
-      <c r="E4">
-        <v>174</v>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>240</v>
       </c>
       <c r="F4">
         <v>11138</v>
@@ -929,23 +1601,23 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>464</v>
-      </c>
-      <c r="E5">
-        <v>763</v>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>241</v>
       </c>
       <c r="F5">
         <v>24470</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -955,14 +1627,14 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>177</v>
-      </c>
-      <c r="E6">
-        <v>460</v>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>242</v>
       </c>
       <c r="F6">
         <v>27099</v>
@@ -975,14 +1647,14 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>128</v>
-      </c>
-      <c r="E7">
-        <v>344</v>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>243</v>
       </c>
       <c r="F7">
         <v>17528</v>
@@ -995,23 +1667,23 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>455</v>
-      </c>
-      <c r="E8">
-        <v>1059</v>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>244</v>
       </c>
       <c r="F8">
         <v>47056</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1021,14 +1693,14 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>224</v>
-      </c>
-      <c r="E9">
-        <v>405</v>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>245</v>
       </c>
       <c r="F9">
         <v>19106</v>
@@ -1041,14 +1713,14 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>384</v>
-      </c>
-      <c r="E10">
-        <v>832</v>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>246</v>
       </c>
       <c r="F10">
         <v>33151</v>
@@ -1061,23 +1733,23 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>1178</v>
-      </c>
-      <c r="E11">
-        <v>2852</v>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>247</v>
       </c>
       <c r="F11">
         <v>136880</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>336</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1087,23 +1759,23 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>2915</v>
-      </c>
-      <c r="E12">
-        <v>8198</v>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>248</v>
       </c>
       <c r="F12">
         <v>259259</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1113,23 +1785,23 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>1022</v>
-      </c>
-      <c r="E13">
-        <v>2284</v>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>249</v>
       </c>
       <c r="F13">
         <v>90405</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1139,23 +1811,23 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>2386</v>
-      </c>
-      <c r="E14">
-        <v>6209</v>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
       </c>
       <c r="F14">
         <v>211597</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1165,23 +1837,23 @@
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>841</v>
-      </c>
-      <c r="E15">
-        <v>1841</v>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="s">
+        <v>251</v>
       </c>
       <c r="F15">
         <v>82026</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1191,23 +1863,23 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>64</v>
-      </c>
-      <c r="E16">
-        <v>187</v>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>252</v>
       </c>
       <c r="F16">
         <v>10676</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>338</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1217,23 +1889,23 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>592</v>
-      </c>
-      <c r="E17">
-        <v>1489</v>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>253</v>
       </c>
       <c r="F17">
         <v>69438</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>339</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1243,14 +1915,14 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>217</v>
-      </c>
-      <c r="E18">
-        <v>448</v>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" t="s">
+        <v>254</v>
       </c>
       <c r="F18">
         <v>22634</v>
@@ -1263,23 +1935,23 @@
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>1963</v>
-      </c>
-      <c r="E19">
-        <v>5009</v>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" t="s">
+        <v>255</v>
       </c>
       <c r="F19">
         <v>158687</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1289,23 +1961,23 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>483</v>
-      </c>
-      <c r="E20">
-        <v>1506</v>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
+        <v>256</v>
       </c>
       <c r="F20">
         <v>73127</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1315,14 +1987,14 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>189</v>
-      </c>
-      <c r="E21">
-        <v>484</v>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>257</v>
       </c>
       <c r="F21">
         <v>28369</v>
@@ -1335,14 +2007,14 @@
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>98</v>
-      </c>
-      <c r="E22">
-        <v>253</v>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>258</v>
       </c>
       <c r="F22">
         <v>14065</v>
@@ -1355,14 +2027,14 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>61</v>
-      </c>
-      <c r="E23">
-        <v>194</v>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" t="s">
+        <v>259</v>
       </c>
       <c r="F23">
         <v>11124</v>
@@ -1375,23 +2047,23 @@
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24">
-        <v>30</v>
-      </c>
-      <c r="D24">
-        <v>1199</v>
-      </c>
-      <c r="E24">
-        <v>2929</v>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s">
+        <v>260</v>
       </c>
       <c r="F24">
         <v>97519</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>341</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1401,14 +2073,14 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
-      <c r="D25">
-        <v>999</v>
-      </c>
-      <c r="E25">
-        <v>1650</v>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" t="s">
+        <v>261</v>
       </c>
       <c r="F25">
         <v>55819</v>
@@ -1421,23 +2093,23 @@
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>914</v>
-      </c>
-      <c r="E26">
-        <v>2328</v>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" t="s">
+        <v>262</v>
       </c>
       <c r="F26">
         <v>102338</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>342</v>
       </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1447,23 +2119,23 @@
       <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27">
-        <v>44</v>
-      </c>
-      <c r="D27">
-        <v>4285</v>
-      </c>
-      <c r="E27">
-        <v>8632</v>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>263</v>
       </c>
       <c r="F27">
         <v>333430</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>343</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1473,23 +2145,23 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>191</v>
-      </c>
-      <c r="E28">
-        <v>368</v>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" t="s">
+        <v>264</v>
       </c>
       <c r="F28">
         <v>27016</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>338</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1499,23 +2171,23 @@
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>426</v>
-      </c>
-      <c r="E29">
-        <v>863</v>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" t="s">
+        <v>265</v>
       </c>
       <c r="F29">
         <v>36607</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>344</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1525,23 +2197,23 @@
       <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C30">
-        <v>33</v>
-      </c>
-      <c r="D30">
-        <v>1670</v>
-      </c>
-      <c r="E30">
-        <v>3717</v>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>266</v>
       </c>
       <c r="F30">
         <v>166358</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1551,23 +2223,23 @@
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>501</v>
-      </c>
-      <c r="E31">
-        <v>988</v>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>267</v>
       </c>
       <c r="F31">
         <v>42563</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1577,14 +2249,14 @@
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C32">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <v>638</v>
-      </c>
-      <c r="E32">
-        <v>1742</v>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" t="s">
+        <v>268</v>
       </c>
       <c r="F32">
         <v>58991</v>
@@ -1597,23 +2269,23 @@
       <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>4202</v>
-      </c>
-      <c r="E33">
-        <v>10942</v>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>269</v>
       </c>
       <c r="F33">
         <v>316979</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="H33" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1623,23 +2295,23 @@
       <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="C34">
-        <v>12</v>
-      </c>
-      <c r="D34">
-        <v>602</v>
-      </c>
-      <c r="E34">
-        <v>1229</v>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" t="s">
+        <v>270</v>
       </c>
       <c r="F34">
         <v>51984</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="H34" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1649,23 +2321,23 @@
       <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35">
-        <v>45</v>
-      </c>
-      <c r="D35">
-        <v>4978</v>
-      </c>
-      <c r="E35">
-        <v>12068</v>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>271</v>
       </c>
       <c r="F35">
         <v>379216</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1675,23 +2347,23 @@
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>633</v>
-      </c>
-      <c r="E36">
-        <v>1299</v>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>203</v>
       </c>
       <c r="F36">
         <v>67625</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1701,23 +2373,23 @@
       <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="C37">
-        <v>33</v>
-      </c>
-      <c r="D37">
-        <v>2832</v>
-      </c>
-      <c r="E37">
-        <v>6855</v>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" t="s">
+        <v>272</v>
       </c>
       <c r="F37">
         <v>222630</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1727,23 +2399,23 @@
       <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>106</v>
-      </c>
-      <c r="E38">
-        <v>197</v>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" t="s">
+        <v>273</v>
       </c>
       <c r="F38">
         <v>11563</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>338</v>
       </c>
       <c r="H38" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1753,14 +2425,14 @@
       <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>129</v>
-      </c>
-      <c r="E39">
-        <v>189</v>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
       </c>
       <c r="F39">
         <v>8461</v>
@@ -1773,23 +2445,23 @@
       <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="C40">
-        <v>17</v>
-      </c>
-      <c r="D40">
-        <v>640</v>
-      </c>
-      <c r="E40">
-        <v>1178</v>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
       </c>
       <c r="F40">
         <v>59979</v>
       </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1799,14 +2471,14 @@
       <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>190</v>
-      </c>
-      <c r="E41">
-        <v>507</v>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" t="s">
+        <v>274</v>
       </c>
       <c r="F41">
         <v>21106</v>
@@ -1819,23 +2491,23 @@
       <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C42">
-        <v>61</v>
-      </c>
-      <c r="D42">
-        <v>8487</v>
-      </c>
-      <c r="E42">
-        <v>14764</v>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" t="s">
+        <v>275</v>
       </c>
       <c r="F42">
         <v>532607</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>348</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1845,23 +2517,23 @@
       <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="C43">
-        <v>16</v>
-      </c>
-      <c r="D43">
-        <v>709</v>
-      </c>
-      <c r="E43">
-        <v>1388</v>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" t="s">
+        <v>276</v>
       </c>
       <c r="F43">
         <v>50634</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>349</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1871,23 +2543,23 @@
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44">
-        <v>35</v>
-      </c>
-      <c r="D44">
-        <v>1225</v>
-      </c>
-      <c r="E44">
-        <v>2431</v>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" t="s">
+        <v>277</v>
       </c>
       <c r="F44">
         <v>134336</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>343</v>
       </c>
       <c r="H44" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1897,23 +2569,23 @@
       <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="C45">
-        <v>12</v>
-      </c>
-      <c r="D45">
-        <v>651</v>
-      </c>
-      <c r="E45">
-        <v>1304</v>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" t="s">
+        <v>278</v>
       </c>
       <c r="F45">
         <v>61890</v>
       </c>
       <c r="G45" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1923,23 +2595,23 @@
       <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="C46">
-        <v>12</v>
-      </c>
-      <c r="D46">
-        <v>887</v>
-      </c>
-      <c r="E46">
-        <v>2670</v>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" t="s">
+        <v>279</v>
       </c>
       <c r="F46">
         <v>116500</v>
       </c>
       <c r="G46" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1949,14 +2621,14 @@
       <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47">
-        <v>267</v>
-      </c>
-      <c r="E47">
-        <v>450</v>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" t="s">
+        <v>280</v>
       </c>
       <c r="F47">
         <v>23878</v>
@@ -1969,23 +2641,23 @@
       <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>560</v>
-      </c>
-      <c r="E48">
-        <v>881</v>
+      <c r="C48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" t="s">
+        <v>281</v>
       </c>
       <c r="F48">
         <v>54695</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>343</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1995,14 +2667,14 @@
       <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>32</v>
-      </c>
-      <c r="E49">
-        <v>97</v>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>282</v>
       </c>
       <c r="F49">
         <v>5026</v>
@@ -2015,23 +2687,23 @@
       <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="C50">
-        <v>25</v>
-      </c>
-      <c r="D50">
-        <v>2155</v>
-      </c>
-      <c r="E50">
-        <v>4566</v>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" t="s">
+        <v>283</v>
       </c>
       <c r="F50">
         <v>178332</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2041,23 +2713,23 @@
       <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="C51">
-        <v>7</v>
-      </c>
-      <c r="D51">
-        <v>434</v>
-      </c>
-      <c r="E51">
-        <v>914</v>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" t="s">
+        <v>166</v>
       </c>
       <c r="F51">
         <v>43600</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2067,23 +2739,23 @@
       <c r="B52" t="s">
         <v>58</v>
       </c>
-      <c r="C52">
-        <v>36</v>
-      </c>
-      <c r="D52">
-        <v>2296</v>
-      </c>
-      <c r="E52">
-        <v>5079</v>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" t="s">
+        <v>284</v>
       </c>
       <c r="F52">
         <v>202692</v>
       </c>
       <c r="G52" t="s">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2093,23 +2765,23 @@
       <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53">
-        <v>122</v>
-      </c>
-      <c r="E53">
-        <v>363</v>
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" t="s">
+        <v>285</v>
       </c>
       <c r="F53">
         <v>9613</v>
       </c>
       <c r="G53" t="s">
-        <v>118</v>
+        <v>342</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2119,23 +2791,23 @@
       <c r="B54" t="s">
         <v>60</v>
       </c>
-      <c r="C54">
-        <v>14</v>
-      </c>
-      <c r="D54">
-        <v>664</v>
-      </c>
-      <c r="E54">
-        <v>1566</v>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" t="s">
+        <v>286</v>
       </c>
       <c r="F54">
         <v>61208</v>
       </c>
       <c r="G54" t="s">
-        <v>127</v>
+        <v>351</v>
       </c>
       <c r="H54" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2145,23 +2817,23 @@
       <c r="B55" t="s">
         <v>61</v>
       </c>
-      <c r="C55">
-        <v>17</v>
-      </c>
-      <c r="D55">
-        <v>843</v>
-      </c>
-      <c r="E55">
-        <v>1461</v>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" t="s">
+        <v>287</v>
       </c>
       <c r="F55">
         <v>55990</v>
       </c>
       <c r="G55" t="s">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2171,23 +2843,23 @@
       <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="C56">
-        <v>11</v>
-      </c>
-      <c r="D56">
-        <v>655</v>
-      </c>
-      <c r="E56">
-        <v>1679</v>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" t="s">
+        <v>288</v>
       </c>
       <c r="F56">
         <v>84092</v>
       </c>
       <c r="G56" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2197,14 +2869,14 @@
       <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="C57">
-        <v>6</v>
-      </c>
-      <c r="D57">
-        <v>316</v>
-      </c>
-      <c r="E57">
-        <v>772</v>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" t="s">
+        <v>289</v>
       </c>
       <c r="F57">
         <v>35274</v>
@@ -2217,23 +2889,23 @@
       <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="C58">
-        <v>7</v>
-      </c>
-      <c r="D58">
-        <v>104</v>
-      </c>
-      <c r="E58">
-        <v>336</v>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" t="s">
+        <v>290</v>
       </c>
       <c r="F58">
         <v>21665</v>
       </c>
       <c r="G58" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="H58" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2243,14 +2915,14 @@
       <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59">
-        <v>267</v>
-      </c>
-      <c r="E59">
-        <v>620</v>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" t="s">
+        <v>291</v>
       </c>
       <c r="F59">
         <v>22660</v>
@@ -2263,23 +2935,23 @@
       <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="C60">
-        <v>8</v>
-      </c>
-      <c r="D60">
-        <v>476</v>
-      </c>
-      <c r="E60">
-        <v>1287</v>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" t="s">
+        <v>292</v>
       </c>
       <c r="F60">
         <v>45465</v>
       </c>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>353</v>
       </c>
       <c r="H60" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2289,23 +2961,23 @@
       <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="C61">
-        <v>116</v>
-      </c>
-      <c r="D61">
-        <v>20326</v>
-      </c>
-      <c r="E61">
-        <v>39798</v>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" t="s">
+        <v>293</v>
       </c>
       <c r="F61">
         <v>1093750</v>
       </c>
       <c r="G61" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="H61" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2315,14 +2987,14 @@
       <c r="B62" t="s">
         <v>68</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>152</v>
-      </c>
-      <c r="E62">
-        <v>239</v>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" t="s">
+        <v>294</v>
       </c>
       <c r="F62">
         <v>14996</v>
@@ -2335,14 +3007,14 @@
       <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>242</v>
-      </c>
-      <c r="E63">
-        <v>683</v>
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" t="s">
+        <v>295</v>
       </c>
       <c r="F63">
         <v>27077</v>
@@ -2355,23 +3027,23 @@
       <c r="B64" t="s">
         <v>70</v>
       </c>
-      <c r="C64">
-        <v>16</v>
-      </c>
-      <c r="D64">
-        <v>813</v>
-      </c>
-      <c r="E64">
-        <v>2209</v>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" t="s">
+        <v>296</v>
       </c>
       <c r="F64">
         <v>98805</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="H64" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2381,23 +3053,23 @@
       <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="C65">
-        <v>30</v>
-      </c>
-      <c r="D65">
-        <v>1299</v>
-      </c>
-      <c r="E65">
-        <v>2504</v>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" t="s">
+        <v>297</v>
       </c>
       <c r="F65">
         <v>94094</v>
       </c>
       <c r="G65" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="H65" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2407,23 +3079,23 @@
       <c r="B66" t="s">
         <v>72</v>
       </c>
-      <c r="C66">
-        <v>12</v>
-      </c>
-      <c r="D66">
-        <v>2351</v>
-      </c>
-      <c r="E66">
-        <v>6027</v>
+      <c r="C66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" t="s">
+        <v>298</v>
       </c>
       <c r="F66">
         <v>232256</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2433,23 +3105,23 @@
       <c r="B67" t="s">
         <v>73</v>
       </c>
-      <c r="C67">
-        <v>10</v>
-      </c>
-      <c r="D67">
-        <v>252</v>
-      </c>
-      <c r="E67">
-        <v>552</v>
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" t="s">
+        <v>299</v>
       </c>
       <c r="F67">
         <v>19698</v>
       </c>
       <c r="G67" t="s">
-        <v>125</v>
+        <v>349</v>
       </c>
       <c r="H67" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2459,23 +3131,23 @@
       <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="C68">
-        <v>21</v>
-      </c>
-      <c r="D68">
-        <v>1932</v>
-      </c>
-      <c r="E68">
-        <v>4467</v>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" t="s">
+        <v>300</v>
       </c>
       <c r="F68">
         <v>196915</v>
       </c>
       <c r="G68" t="s">
-        <v>132</v>
+        <v>356</v>
       </c>
       <c r="H68" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2485,23 +3157,23 @@
       <c r="B69" t="s">
         <v>75</v>
       </c>
-      <c r="C69">
-        <v>9</v>
-      </c>
-      <c r="D69">
-        <v>1155</v>
-      </c>
-      <c r="E69">
-        <v>3083</v>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" t="s">
+        <v>301</v>
       </c>
       <c r="F69">
         <v>147980</v>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="H69" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2511,23 +3183,23 @@
       <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>73</v>
-      </c>
-      <c r="E70">
-        <v>194</v>
+      <c r="C70" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" t="s">
+        <v>259</v>
       </c>
       <c r="F70">
         <v>12633</v>
       </c>
       <c r="G70" t="s">
-        <v>118</v>
+        <v>342</v>
       </c>
       <c r="H70" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2537,23 +3209,23 @@
       <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="C71">
-        <v>6</v>
-      </c>
-      <c r="D71">
-        <v>347</v>
-      </c>
-      <c r="E71">
-        <v>917</v>
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" t="s">
+        <v>302</v>
       </c>
       <c r="F71">
         <v>39583</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="H71" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2563,23 +3235,23 @@
       <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="C72">
-        <v>28</v>
-      </c>
-      <c r="D72">
-        <v>644</v>
-      </c>
-      <c r="E72">
-        <v>1511</v>
+      <c r="C72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" t="s">
+        <v>303</v>
       </c>
       <c r="F72">
         <v>62017</v>
       </c>
       <c r="G72" t="s">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="H72" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2589,23 +3261,23 @@
       <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73">
-        <v>82</v>
-      </c>
-      <c r="E73">
-        <v>189</v>
+      <c r="C73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" t="s">
+        <v>211</v>
+      </c>
+      <c r="E73" t="s">
+        <v>161</v>
       </c>
       <c r="F73">
         <v>13381</v>
       </c>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="H73" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2615,23 +3287,23 @@
       <c r="B74" t="s">
         <v>80</v>
       </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74">
-        <v>386</v>
-      </c>
-      <c r="E74">
-        <v>985</v>
+      <c r="C74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" t="s">
+        <v>304</v>
       </c>
       <c r="F74">
         <v>39436</v>
       </c>
       <c r="G74" t="s">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="H74" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2641,23 +3313,23 @@
       <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="C75">
-        <v>21</v>
-      </c>
-      <c r="D75">
-        <v>3164</v>
-      </c>
-      <c r="E75">
-        <v>5907</v>
+      <c r="C75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" t="s">
+        <v>305</v>
       </c>
       <c r="F75">
         <v>179575</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="H75" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2667,14 +3339,14 @@
       <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-      <c r="D76">
-        <v>210</v>
-      </c>
-      <c r="E76">
-        <v>486</v>
+      <c r="C76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" t="s">
+        <v>306</v>
       </c>
       <c r="F76">
         <v>20668</v>
@@ -2687,23 +3359,23 @@
       <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="C77">
-        <v>17</v>
-      </c>
-      <c r="D77">
-        <v>1510</v>
-      </c>
-      <c r="E77">
-        <v>3417</v>
+      <c r="C77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" t="s">
+        <v>307</v>
       </c>
       <c r="F77">
         <v>143249</v>
       </c>
       <c r="G77" t="s">
-        <v>124</v>
+        <v>348</v>
       </c>
       <c r="H77" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2713,23 +3385,23 @@
       <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="C78">
-        <v>12</v>
-      </c>
-      <c r="D78">
-        <v>719</v>
-      </c>
-      <c r="E78">
-        <v>1163</v>
+      <c r="C78" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" t="s">
+        <v>308</v>
       </c>
       <c r="F78">
         <v>44888</v>
       </c>
       <c r="G78" t="s">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="H78" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2739,23 +3411,23 @@
       <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="C79">
-        <v>48</v>
-      </c>
-      <c r="D79">
-        <v>2058</v>
-      </c>
-      <c r="E79">
-        <v>3702</v>
+      <c r="C79" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" t="s">
+        <v>217</v>
+      </c>
+      <c r="E79" t="s">
+        <v>309</v>
       </c>
       <c r="F79">
         <v>131884</v>
       </c>
       <c r="G79" t="s">
-        <v>136</v>
+        <v>360</v>
       </c>
       <c r="H79" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2765,23 +3437,23 @@
       <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="C80">
-        <v>12</v>
-      </c>
-      <c r="D80">
-        <v>852</v>
-      </c>
-      <c r="E80">
-        <v>2148</v>
+      <c r="C80" t="s">
+        <v>128</v>
+      </c>
+      <c r="D80" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" t="s">
+        <v>310</v>
       </c>
       <c r="F80">
         <v>90617</v>
       </c>
       <c r="G80" t="s">
-        <v>124</v>
+        <v>348</v>
       </c>
       <c r="H80" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2791,23 +3463,23 @@
       <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="C81">
-        <v>23</v>
-      </c>
-      <c r="D81">
-        <v>1695</v>
-      </c>
-      <c r="E81">
-        <v>3955</v>
+      <c r="C81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" t="s">
+        <v>311</v>
       </c>
       <c r="F81">
         <v>141128</v>
       </c>
       <c r="G81" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="H81" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2817,23 +3489,23 @@
       <c r="B82" t="s">
         <v>88</v>
       </c>
-      <c r="C82">
-        <v>10</v>
-      </c>
-      <c r="D82">
-        <v>611</v>
-      </c>
-      <c r="E82">
-        <v>1346</v>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" t="s">
+        <v>312</v>
       </c>
       <c r="F82">
         <v>66775</v>
       </c>
       <c r="G82" t="s">
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="H82" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2843,14 +3515,14 @@
       <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="C83">
-        <v>18</v>
-      </c>
-      <c r="D83">
-        <v>949</v>
-      </c>
-      <c r="E83">
-        <v>1617</v>
+      <c r="C83" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" t="s">
+        <v>313</v>
       </c>
       <c r="F83">
         <v>63345</v>
@@ -2863,23 +3535,23 @@
       <c r="B84" t="s">
         <v>90</v>
       </c>
-      <c r="C84">
-        <v>5</v>
-      </c>
-      <c r="D84">
-        <v>451</v>
-      </c>
-      <c r="E84">
-        <v>768</v>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" t="s">
+        <v>314</v>
       </c>
       <c r="F84">
         <v>34751</v>
       </c>
       <c r="G84" t="s">
-        <v>138</v>
+        <v>362</v>
       </c>
       <c r="H84" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2889,23 +3561,23 @@
       <c r="B85" t="s">
         <v>91</v>
       </c>
-      <c r="C85">
-        <v>6</v>
-      </c>
-      <c r="D85">
-        <v>591</v>
-      </c>
-      <c r="E85">
-        <v>1497</v>
+      <c r="C85" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85" t="s">
+        <v>315</v>
       </c>
       <c r="F85">
         <v>62180</v>
       </c>
       <c r="G85" t="s">
-        <v>139</v>
+        <v>363</v>
       </c>
       <c r="H85" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2915,23 +3587,23 @@
       <c r="B86" t="s">
         <v>92</v>
       </c>
-      <c r="C86">
-        <v>5</v>
-      </c>
-      <c r="D86">
-        <v>317</v>
-      </c>
-      <c r="E86">
-        <v>848</v>
+      <c r="C86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" t="s">
+        <v>316</v>
       </c>
       <c r="F86">
         <v>45511</v>
       </c>
       <c r="G86" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="H86" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2941,23 +3613,23 @@
       <c r="B87" t="s">
         <v>93</v>
       </c>
-      <c r="C87">
-        <v>12</v>
-      </c>
-      <c r="D87">
-        <v>887</v>
-      </c>
-      <c r="E87">
-        <v>1633</v>
+      <c r="C87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" t="s">
+        <v>317</v>
       </c>
       <c r="F87">
         <v>71959</v>
       </c>
       <c r="G87" t="s">
-        <v>140</v>
+        <v>364</v>
       </c>
       <c r="H87" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2967,23 +3639,23 @@
       <c r="B88" t="s">
         <v>94</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
-        <v>72</v>
-      </c>
-      <c r="E88">
-        <v>170</v>
+      <c r="C88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" t="s">
+        <v>225</v>
+      </c>
+      <c r="E88" t="s">
+        <v>318</v>
       </c>
       <c r="F88">
         <v>14249</v>
       </c>
       <c r="G88" t="s">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="H88" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2993,23 +3665,23 @@
       <c r="B89" t="s">
         <v>95</v>
       </c>
-      <c r="C89">
-        <v>4</v>
-      </c>
-      <c r="D89">
-        <v>200</v>
-      </c>
-      <c r="E89">
-        <v>574</v>
+      <c r="C89" t="s">
+        <v>137</v>
+      </c>
+      <c r="D89" t="s">
+        <v>226</v>
+      </c>
+      <c r="E89" t="s">
+        <v>319</v>
       </c>
       <c r="F89">
         <v>34173</v>
       </c>
       <c r="G89" t="s">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="H89" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3019,14 +3691,14 @@
       <c r="B90" t="s">
         <v>96</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>21</v>
-      </c>
-      <c r="E90">
-        <v>119</v>
+      <c r="C90" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" t="s">
+        <v>320</v>
       </c>
       <c r="F90">
         <v>4115</v>
@@ -3039,23 +3711,23 @@
       <c r="B91" t="s">
         <v>97</v>
       </c>
-      <c r="C91">
-        <v>24</v>
-      </c>
-      <c r="D91">
-        <v>2270</v>
-      </c>
-      <c r="E91">
-        <v>5732</v>
+      <c r="C91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" t="s">
+        <v>321</v>
       </c>
       <c r="F91">
         <v>235830</v>
       </c>
       <c r="G91" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="H91" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3065,23 +3737,23 @@
       <c r="B92" t="s">
         <v>98</v>
       </c>
-      <c r="C92">
-        <v>9</v>
-      </c>
-      <c r="D92">
-        <v>872</v>
-      </c>
-      <c r="E92">
-        <v>1361</v>
+      <c r="C92" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" t="s">
+        <v>228</v>
+      </c>
+      <c r="E92" t="s">
+        <v>322</v>
       </c>
       <c r="F92">
         <v>44635</v>
       </c>
       <c r="G92" t="s">
-        <v>142</v>
+        <v>366</v>
       </c>
       <c r="H92" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3091,23 +3763,23 @@
       <c r="B93" t="s">
         <v>99</v>
       </c>
-      <c r="C93">
-        <v>65</v>
-      </c>
-      <c r="D93">
-        <v>12642</v>
-      </c>
-      <c r="E93">
-        <v>31876</v>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" t="s">
+        <v>323</v>
       </c>
       <c r="F93">
         <v>1091273</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="H93" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3117,14 +3789,14 @@
       <c r="B94" t="s">
         <v>100</v>
       </c>
-      <c r="C94">
-        <v>8</v>
-      </c>
-      <c r="D94">
-        <v>223</v>
-      </c>
-      <c r="E94">
-        <v>431</v>
+      <c r="C94" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" t="s">
+        <v>230</v>
+      </c>
+      <c r="E94" t="s">
+        <v>324</v>
       </c>
       <c r="F94">
         <v>19819</v>
@@ -3137,14 +3809,14 @@
       <c r="B95" t="s">
         <v>101</v>
       </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <v>99</v>
-      </c>
-      <c r="E95">
-        <v>246</v>
+      <c r="C95" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" t="s">
+        <v>231</v>
+      </c>
+      <c r="E95" t="s">
+        <v>325</v>
       </c>
       <c r="F95">
         <v>11769</v>
@@ -3157,23 +3829,23 @@
       <c r="B96" t="s">
         <v>102</v>
       </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>422</v>
-      </c>
-      <c r="E96">
-        <v>1462</v>
+      <c r="C96" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96" t="s">
+        <v>326</v>
       </c>
       <c r="F96">
         <v>56034</v>
       </c>
       <c r="G96" t="s">
-        <v>143</v>
+        <v>367</v>
       </c>
       <c r="H96" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3183,23 +3855,23 @@
       <c r="B97" t="s">
         <v>103</v>
       </c>
-      <c r="C97">
-        <v>19</v>
-      </c>
-      <c r="D97">
-        <v>1495</v>
-      </c>
-      <c r="E97">
-        <v>2986</v>
+      <c r="C97" t="s">
+        <v>141</v>
+      </c>
+      <c r="D97" t="s">
+        <v>233</v>
+      </c>
+      <c r="E97" t="s">
+        <v>327</v>
       </c>
       <c r="F97">
         <v>123237</v>
       </c>
       <c r="G97" t="s">
-        <v>144</v>
+        <v>368</v>
       </c>
       <c r="H97" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3209,23 +3881,23 @@
       <c r="B98" t="s">
         <v>104</v>
       </c>
-      <c r="C98">
-        <v>8</v>
-      </c>
-      <c r="D98">
-        <v>673</v>
-      </c>
-      <c r="E98">
-        <v>1394</v>
+      <c r="C98" t="s">
+        <v>113</v>
+      </c>
+      <c r="D98" t="s">
+        <v>234</v>
+      </c>
+      <c r="E98" t="s">
+        <v>328</v>
       </c>
       <c r="F98">
         <v>68563</v>
       </c>
       <c r="G98" t="s">
-        <v>145</v>
+        <v>369</v>
       </c>
       <c r="H98" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3235,23 +3907,23 @@
       <c r="B99" t="s">
         <v>105</v>
       </c>
-      <c r="C99">
-        <v>12</v>
-      </c>
-      <c r="D99">
-        <v>1132</v>
-      </c>
-      <c r="E99">
-        <v>2311</v>
+      <c r="C99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" t="s">
+        <v>329</v>
       </c>
       <c r="F99">
         <v>81392</v>
       </c>
       <c r="G99" t="s">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="H99" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3261,23 +3933,23 @@
       <c r="B100" t="s">
         <v>106</v>
       </c>
-      <c r="C100">
-        <v>4</v>
-      </c>
-      <c r="D100">
-        <v>281</v>
-      </c>
-      <c r="E100">
-        <v>732</v>
+      <c r="C100" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100" t="s">
+        <v>236</v>
+      </c>
+      <c r="E100" t="s">
+        <v>330</v>
       </c>
       <c r="F100">
         <v>37481</v>
       </c>
       <c r="G100" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="H100" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3287,14 +3959,14 @@
       <c r="B101" t="s">
         <v>107</v>
       </c>
-      <c r="C101">
-        <v>3</v>
-      </c>
-      <c r="D101">
-        <v>108</v>
-      </c>
-      <c r="E101">
-        <v>236</v>
+      <c r="C101" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" t="s">
+        <v>331</v>
       </c>
       <c r="F101">
         <v>17873</v>
